--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.91310933333333</v>
+        <v>26.96861866666667</v>
       </c>
       <c r="H2">
-        <v>74.739328</v>
+        <v>80.905856</v>
       </c>
       <c r="I2">
-        <v>0.06151447507131797</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="J2">
-        <v>0.06151447507131798</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.505498666666668</v>
+        <v>8.493837666666666</v>
       </c>
       <c r="N2">
-        <v>25.516496</v>
+        <v>25.481513</v>
       </c>
       <c r="O2">
-        <v>0.2779819612213552</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="P2">
-        <v>0.2779819612213551</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="Q2">
-        <v>211.8984182171876</v>
+        <v>229.0670690489031</v>
       </c>
       <c r="R2">
-        <v>1907.085763954688</v>
+        <v>2061.603621440128</v>
       </c>
       <c r="S2">
-        <v>0.01709991442382713</v>
+        <v>0.01937803263084642</v>
       </c>
       <c r="T2">
-        <v>0.01709991442382713</v>
+        <v>0.01937803263084642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.91310933333333</v>
+        <v>26.96861866666667</v>
       </c>
       <c r="H3">
-        <v>74.739328</v>
+        <v>80.905856</v>
       </c>
       <c r="I3">
-        <v>0.06151447507131797</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="J3">
-        <v>0.06151447507131798</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.725081</v>
       </c>
       <c r="O3">
-        <v>0.2802543291586047</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="P3">
-        <v>0.2802543291586046</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="Q3">
-        <v>213.6305851872854</v>
+        <v>231.2566332193707</v>
       </c>
       <c r="R3">
-        <v>1922.675266685568</v>
+        <v>2081.309698974336</v>
       </c>
       <c r="S3">
-        <v>0.01723969794465593</v>
+        <v>0.019563259805223</v>
       </c>
       <c r="T3">
-        <v>0.01723969794465592</v>
+        <v>0.019563259805223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.91310933333333</v>
+        <v>26.96861866666667</v>
       </c>
       <c r="H4">
-        <v>74.739328</v>
+        <v>80.905856</v>
       </c>
       <c r="I4">
-        <v>0.06151447507131797</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="J4">
-        <v>0.06151447507131798</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.846185</v>
+        <v>4.098573333333333</v>
       </c>
       <c r="N4">
-        <v>8.538554999999999</v>
+        <v>12.29572</v>
       </c>
       <c r="O4">
-        <v>0.09302077624202036</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="P4">
-        <v>0.09302077624202033</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="Q4">
-        <v>70.90731808789333</v>
+        <v>110.5328613040356</v>
       </c>
       <c r="R4">
-        <v>638.1658627910399</v>
+        <v>994.79575173632</v>
       </c>
       <c r="S4">
-        <v>0.005722124221254408</v>
+        <v>0.009350577549290381</v>
       </c>
       <c r="T4">
-        <v>0.005722124221254407</v>
+        <v>0.009350577549290381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.91310933333333</v>
+        <v>26.96861866666667</v>
       </c>
       <c r="H5">
-        <v>74.739328</v>
+        <v>80.905856</v>
       </c>
       <c r="I5">
-        <v>0.06151447507131797</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="J5">
-        <v>0.06151447507131798</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.208772</v>
+        <v>2.967941666666667</v>
       </c>
       <c r="N5">
-        <v>12.626316</v>
+        <v>8.903825000000001</v>
       </c>
       <c r="O5">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369267</v>
       </c>
       <c r="P5">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369268</v>
       </c>
       <c r="Q5">
-        <v>104.853596995072</v>
+        <v>80.04128703324446</v>
       </c>
       <c r="R5">
-        <v>943.6823729556479</v>
+        <v>720.3715832992001</v>
       </c>
       <c r="S5">
-        <v>0.008461542803063526</v>
+        <v>0.006771128990234849</v>
       </c>
       <c r="T5">
-        <v>0.008461542803063524</v>
+        <v>0.006771128990234849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.91310933333333</v>
+        <v>26.96861866666667</v>
       </c>
       <c r="H6">
-        <v>74.739328</v>
+        <v>80.905856</v>
       </c>
       <c r="I6">
-        <v>0.06151447507131797</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="J6">
-        <v>0.06151447507131798</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.378539333333334</v>
+        <v>2.510565333333334</v>
       </c>
       <c r="N6">
-        <v>10.135618</v>
+        <v>7.531696</v>
       </c>
       <c r="O6">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="P6">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="Q6">
-        <v>84.16991979830046</v>
+        <v>67.70647911241956</v>
       </c>
       <c r="R6">
-        <v>757.529278184704</v>
+        <v>609.358312011776</v>
       </c>
       <c r="S6">
-        <v>0.006792398158140596</v>
+        <v>0.005727660318035882</v>
       </c>
       <c r="T6">
-        <v>0.006792398158140596</v>
+        <v>0.005727660318035882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.91310933333333</v>
+        <v>26.96861866666667</v>
       </c>
       <c r="H7">
-        <v>74.739328</v>
+        <v>80.905856</v>
       </c>
       <c r="I7">
-        <v>0.06151447507131797</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="J7">
-        <v>0.06151447507131798</v>
+        <v>0.07101242921597992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.083282333333333</v>
+        <v>4.480437</v>
       </c>
       <c r="N7">
-        <v>9.249846999999999</v>
+        <v>13.441311</v>
       </c>
       <c r="O7">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="P7">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="Q7">
-        <v>76.81414987586844</v>
+        <v>120.831196913024</v>
       </c>
       <c r="R7">
-        <v>691.327348882816</v>
+        <v>1087.480772217216</v>
       </c>
       <c r="S7">
-        <v>0.006198797520376389</v>
+        <v>0.01022176992234939</v>
       </c>
       <c r="T7">
-        <v>0.006198797520376389</v>
+        <v>0.01022176992234939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1009.626404</v>
       </c>
       <c r="I8">
-        <v>0.8309766748264368</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="J8">
-        <v>0.8309766748264369</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.505498666666668</v>
+        <v>8.493837666666666</v>
       </c>
       <c r="N8">
-        <v>25.516496</v>
+        <v>25.481513</v>
       </c>
       <c r="O8">
-        <v>0.2779819612213552</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="P8">
-        <v>0.2779819612213551</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="Q8">
-        <v>2862.458677684487</v>
+        <v>2858.534259852139</v>
       </c>
       <c r="R8">
-        <v>25762.12809916039</v>
+        <v>25726.80833866925</v>
       </c>
       <c r="S8">
-        <v>0.2309965257974532</v>
+        <v>0.2418190025908153</v>
       </c>
       <c r="T8">
-        <v>0.2309965257974532</v>
+        <v>0.2418190025908153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1009.626404</v>
       </c>
       <c r="I9">
-        <v>0.8309766748264368</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="J9">
-        <v>0.8309766748264369</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>25.725081</v>
       </c>
       <c r="O9">
-        <v>0.2802543291586047</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="P9">
-        <v>0.2802543291586046</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="Q9">
         <v>2885.857891404303</v>
@@ -1013,10 +1013,10 @@
         <v>25972.72102263872</v>
       </c>
       <c r="S9">
-        <v>0.232884810549931</v>
+        <v>0.2441304575983354</v>
       </c>
       <c r="T9">
-        <v>0.232884810549931</v>
+        <v>0.2441304575983355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1009.626404</v>
       </c>
       <c r="I10">
-        <v>0.8309766748264368</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="J10">
-        <v>0.8309766748264369</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.846185</v>
+        <v>4.098573333333333</v>
       </c>
       <c r="N10">
-        <v>8.538554999999999</v>
+        <v>12.29572</v>
       </c>
       <c r="O10">
-        <v>0.09302077624202036</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="P10">
-        <v>0.09302077624202033</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="Q10">
-        <v>957.8611755562465</v>
+        <v>1379.342618687876</v>
       </c>
       <c r="R10">
-        <v>8620.750580006217</v>
+        <v>12414.08356819088</v>
       </c>
       <c r="S10">
-        <v>0.07729809533136808</v>
+        <v>0.116686114617132</v>
       </c>
       <c r="T10">
-        <v>0.07729809533136808</v>
+        <v>0.116686114617132</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1009.626404</v>
       </c>
       <c r="I11">
-        <v>0.8309766748264368</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="J11">
-        <v>0.8309766748264369</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.208772</v>
+        <v>2.967941666666667</v>
       </c>
       <c r="N11">
-        <v>12.626316</v>
+        <v>8.903825000000001</v>
       </c>
       <c r="O11">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369267</v>
       </c>
       <c r="P11">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369268</v>
       </c>
       <c r="Q11">
-        <v>1416.429113205296</v>
+        <v>998.8374240661444</v>
       </c>
       <c r="R11">
-        <v>12747.86201884766</v>
+        <v>8989.5368165953</v>
       </c>
       <c r="S11">
-        <v>0.1143039048002828</v>
+        <v>0.08449710504800741</v>
       </c>
       <c r="T11">
-        <v>0.1143039048002827</v>
+        <v>0.08449710504800742</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1009.626404</v>
       </c>
       <c r="I12">
-        <v>0.8309766748264368</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="J12">
-        <v>0.8309766748264369</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.378539333333334</v>
+        <v>2.510565333333334</v>
       </c>
       <c r="N12">
-        <v>10.135618</v>
+        <v>7.531696</v>
       </c>
       <c r="O12">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="P12">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="Q12">
-        <v>1137.020839295297</v>
+        <v>844.9110165001316</v>
       </c>
       <c r="R12">
-        <v>10233.18755365767</v>
+        <v>7604.199148501184</v>
       </c>
       <c r="S12">
-        <v>0.09175603675403279</v>
+        <v>0.07147563076561558</v>
       </c>
       <c r="T12">
-        <v>0.09175603675403279</v>
+        <v>0.07147563076561558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1009.626404</v>
       </c>
       <c r="I13">
-        <v>0.8309766748264368</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="J13">
-        <v>0.8309766748264369</v>
+        <v>0.8861660588404668</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.083282333333333</v>
+        <v>4.480437</v>
       </c>
       <c r="N13">
-        <v>9.249846999999999</v>
+        <v>13.441311</v>
       </c>
       <c r="O13">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="P13">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="Q13">
-        <v>1037.654418240021</v>
+        <v>1507.855832219516</v>
       </c>
       <c r="R13">
-        <v>9338.889764160185</v>
+        <v>13570.70248997565</v>
       </c>
       <c r="S13">
-        <v>0.08373730159336903</v>
+        <v>0.1275577482205611</v>
       </c>
       <c r="T13">
-        <v>0.08373730159336903</v>
+        <v>0.1275577482205611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.119661</v>
+        <v>0.047754</v>
       </c>
       <c r="H14">
-        <v>0.358983</v>
+        <v>0.143262</v>
       </c>
       <c r="I14">
-        <v>0.0002954622605721975</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="J14">
-        <v>0.0002954622605721976</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.505498666666668</v>
+        <v>8.493837666666666</v>
       </c>
       <c r="N14">
-        <v>25.516496</v>
+        <v>25.481513</v>
       </c>
       <c r="O14">
-        <v>0.2779819612213552</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="P14">
-        <v>0.2779819612213551</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="Q14">
-        <v>1.017776475952</v>
+        <v>0.4056147239339999</v>
       </c>
       <c r="R14">
-        <v>9.159988283568001</v>
+        <v>3.650532515406</v>
       </c>
       <c r="S14">
-        <v>8.213317866075455E-05</v>
+        <v>3.431316159315241E-05</v>
       </c>
       <c r="T14">
-        <v>8.213317866075455E-05</v>
+        <v>3.431316159315241E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.119661</v>
+        <v>0.047754</v>
       </c>
       <c r="H15">
-        <v>0.358983</v>
+        <v>0.143262</v>
       </c>
       <c r="I15">
-        <v>0.0002954622605721975</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="J15">
-        <v>0.0002954622605721976</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.725081</v>
       </c>
       <c r="O15">
-        <v>0.2802543291586047</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="P15">
-        <v>0.2802543291586046</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="Q15">
-        <v>1.026096305847</v>
+        <v>0.409491839358</v>
       </c>
       <c r="R15">
-        <v>9.234866752622999</v>
+        <v>3.685426554222</v>
       </c>
       <c r="S15">
-        <v>8.280457762834606E-05</v>
+        <v>3.464114793144092E-05</v>
       </c>
       <c r="T15">
-        <v>8.280457762834606E-05</v>
+        <v>3.464114793144093E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.119661</v>
+        <v>0.047754</v>
       </c>
       <c r="H16">
-        <v>0.358983</v>
+        <v>0.143262</v>
       </c>
       <c r="I16">
-        <v>0.0002954622605721975</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="J16">
-        <v>0.0002954622605721976</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.846185</v>
+        <v>4.098573333333333</v>
       </c>
       <c r="N16">
-        <v>8.538554999999999</v>
+        <v>12.29572</v>
       </c>
       <c r="O16">
-        <v>0.09302077624202036</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="P16">
-        <v>0.09302077624202033</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="Q16">
-        <v>0.340577343285</v>
+        <v>0.19572327096</v>
       </c>
       <c r="R16">
-        <v>3.065196089565</v>
+        <v>1.76150943864</v>
       </c>
       <c r="S16">
-        <v>2.74841288286479E-05</v>
+        <v>1.655729890388204E-05</v>
       </c>
       <c r="T16">
-        <v>2.74841288286479E-05</v>
+        <v>1.655729890388204E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.119661</v>
+        <v>0.047754</v>
       </c>
       <c r="H17">
-        <v>0.358983</v>
+        <v>0.143262</v>
       </c>
       <c r="I17">
-        <v>0.0002954622605721975</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="J17">
-        <v>0.0002954622605721976</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.208772</v>
+        <v>2.967941666666667</v>
       </c>
       <c r="N17">
-        <v>12.626316</v>
+        <v>8.903825000000001</v>
       </c>
       <c r="O17">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369267</v>
       </c>
       <c r="P17">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369268</v>
       </c>
       <c r="Q17">
-        <v>0.503625866292</v>
+        <v>0.14173108635</v>
       </c>
       <c r="R17">
-        <v>4.532632796628</v>
+        <v>1.27557977715</v>
       </c>
       <c r="S17">
-        <v>4.064192308595755E-05</v>
+        <v>1.198980555126967E-05</v>
       </c>
       <c r="T17">
-        <v>4.064192308595755E-05</v>
+        <v>1.198980555126968E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.119661</v>
+        <v>0.047754</v>
       </c>
       <c r="H18">
-        <v>0.358983</v>
+        <v>0.143262</v>
       </c>
       <c r="I18">
-        <v>0.0002954622605721975</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="J18">
-        <v>0.0002954622605721976</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.378539333333334</v>
+        <v>2.510565333333334</v>
       </c>
       <c r="N18">
-        <v>10.135618</v>
+        <v>7.531696</v>
       </c>
       <c r="O18">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="P18">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="Q18">
-        <v>0.4042793951660001</v>
+        <v>0.119889536928</v>
       </c>
       <c r="R18">
-        <v>3.638514556494</v>
+        <v>1.079005832352</v>
       </c>
       <c r="S18">
-        <v>3.262479785747854E-05</v>
+        <v>1.014210976869779E-05</v>
       </c>
       <c r="T18">
-        <v>3.262479785747854E-05</v>
+        <v>1.014210976869779E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.119661</v>
+        <v>0.047754</v>
       </c>
       <c r="H19">
-        <v>0.358983</v>
+        <v>0.143262</v>
       </c>
       <c r="I19">
-        <v>0.0002954622605721975</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="J19">
-        <v>0.0002954622605721976</v>
+        <v>0.0001257434645316615</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.083282333333333</v>
+        <v>4.480437</v>
       </c>
       <c r="N19">
-        <v>9.249846999999999</v>
+        <v>13.441311</v>
       </c>
       <c r="O19">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="P19">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="Q19">
-        <v>0.368948647289</v>
+        <v>0.213958788498</v>
       </c>
       <c r="R19">
-        <v>3.320537825600999</v>
+        <v>1.925629096482</v>
       </c>
       <c r="S19">
-        <v>2.977365451101296E-05</v>
+        <v>1.809994078321869E-05</v>
       </c>
       <c r="T19">
-        <v>2.977365451101296E-05</v>
+        <v>1.809994078321869E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.53886600000001</v>
+        <v>15.910906</v>
       </c>
       <c r="H20">
-        <v>127.616598</v>
+        <v>47.732718</v>
       </c>
       <c r="I20">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="J20">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.505498666666668</v>
+        <v>8.493837666666666</v>
       </c>
       <c r="N20">
-        <v>25.516496</v>
+        <v>25.481513</v>
       </c>
       <c r="O20">
-        <v>0.2779819612213552</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="P20">
-        <v>0.2779819612213551</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="Q20">
-        <v>361.8142680445121</v>
+        <v>135.1446526935926</v>
       </c>
       <c r="R20">
-        <v>3256.328412400609</v>
+        <v>1216.301874242334</v>
       </c>
       <c r="S20">
-        <v>0.02919791980013453</v>
+        <v>0.01143262320792935</v>
       </c>
       <c r="T20">
-        <v>0.02919791980013452</v>
+        <v>0.01143262320792935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.53886600000001</v>
+        <v>15.910906</v>
       </c>
       <c r="H21">
-        <v>127.616598</v>
+        <v>47.732718</v>
       </c>
       <c r="I21">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="J21">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>25.725081</v>
       </c>
       <c r="O21">
-        <v>0.2802543291586047</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="P21">
-        <v>0.2802543291586046</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="Q21">
-        <v>364.7719244993821</v>
+        <v>136.436448544462</v>
       </c>
       <c r="R21">
-        <v>3282.947320494438</v>
+        <v>1227.928036900158</v>
       </c>
       <c r="S21">
-        <v>0.02943659865719668</v>
+        <v>0.01154190326400408</v>
       </c>
       <c r="T21">
-        <v>0.02943659865719667</v>
+        <v>0.01154190326400408</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.53886600000001</v>
+        <v>15.910906</v>
       </c>
       <c r="H22">
-        <v>127.616598</v>
+        <v>47.732718</v>
       </c>
       <c r="I22">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="J22">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.846185</v>
+        <v>4.098573333333333</v>
       </c>
       <c r="N22">
-        <v>8.538554999999999</v>
+        <v>12.29572</v>
       </c>
       <c r="O22">
-        <v>0.09302077624202036</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="P22">
-        <v>0.09302077624202033</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="Q22">
-        <v>121.07348232621</v>
+        <v>65.21201504077332</v>
       </c>
       <c r="R22">
-        <v>1089.66134093589</v>
+        <v>586.90813536696</v>
       </c>
       <c r="S22">
-        <v>0.009770465509803447</v>
+        <v>0.005516639998190104</v>
       </c>
       <c r="T22">
-        <v>0.009770465509803443</v>
+        <v>0.005516639998190104</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.53886600000001</v>
+        <v>15.910906</v>
       </c>
       <c r="H23">
-        <v>127.616598</v>
+        <v>47.732718</v>
       </c>
       <c r="I23">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="J23">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.208772</v>
+        <v>2.967941666666667</v>
       </c>
       <c r="N23">
-        <v>12.626316</v>
+        <v>8.903825000000001</v>
       </c>
       <c r="O23">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369267</v>
       </c>
       <c r="P23">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369268</v>
       </c>
       <c r="Q23">
-        <v>179.036388132552</v>
+        <v>47.22264087181667</v>
       </c>
       <c r="R23">
-        <v>1611.327493192968</v>
+        <v>425.0037678463501</v>
       </c>
       <c r="S23">
-        <v>0.01444799324872644</v>
+        <v>0.003994820728829626</v>
       </c>
       <c r="T23">
-        <v>0.01444799324872644</v>
+        <v>0.003994820728829626</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.53886600000001</v>
+        <v>15.910906</v>
       </c>
       <c r="H24">
-        <v>127.616598</v>
+        <v>47.732718</v>
       </c>
       <c r="I24">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="J24">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.378539333333334</v>
+        <v>2.510565333333334</v>
       </c>
       <c r="N24">
-        <v>10.135618</v>
+        <v>7.531696</v>
       </c>
       <c r="O24">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="P24">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="Q24">
-        <v>143.719231976396</v>
+        <v>39.94536902552533</v>
       </c>
       <c r="R24">
-        <v>1293.473087787564</v>
+        <v>359.508321229728</v>
       </c>
       <c r="S24">
-        <v>0.01159794673566464</v>
+        <v>0.003379196615392056</v>
       </c>
       <c r="T24">
-        <v>0.01159794673566464</v>
+        <v>0.003379196615392056</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.53886600000001</v>
+        <v>15.910906</v>
       </c>
       <c r="H25">
-        <v>127.616598</v>
+        <v>47.732718</v>
       </c>
       <c r="I25">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="J25">
-        <v>0.1050353039882484</v>
+        <v>0.04189580860823387</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.083282333333333</v>
+        <v>4.480437</v>
       </c>
       <c r="N25">
-        <v>9.249846999999999</v>
+        <v>13.441311</v>
       </c>
       <c r="O25">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="P25">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="Q25">
-        <v>131.159334017834</v>
+        <v>71.287811945922</v>
       </c>
       <c r="R25">
-        <v>1180.434006160506</v>
+        <v>641.5903075132981</v>
       </c>
       <c r="S25">
-        <v>0.01058438003672271</v>
+        <v>0.006030624793888656</v>
       </c>
       <c r="T25">
-        <v>0.01058438003672271</v>
+        <v>0.006030624793888656</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3831746666666667</v>
+        <v>0.2392673333333334</v>
       </c>
       <c r="H26">
-        <v>1.149524</v>
+        <v>0.7178020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0009461198987751364</v>
+        <v>0.0006300268761273452</v>
       </c>
       <c r="J26">
-        <v>0.0009461198987751365</v>
+        <v>0.000630026876127345</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.505498666666668</v>
+        <v>8.493837666666666</v>
       </c>
       <c r="N26">
-        <v>25.516496</v>
+        <v>25.481513</v>
       </c>
       <c r="O26">
-        <v>0.2779819612213552</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="P26">
-        <v>0.2779819612213551</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="Q26">
-        <v>3.259091616433778</v>
+        <v>2.032297888269555</v>
       </c>
       <c r="R26">
-        <v>29.331824547904</v>
+        <v>18.290680994426</v>
       </c>
       <c r="S26">
-        <v>0.0002630042650120624</v>
+        <v>0.0001719231618844355</v>
       </c>
       <c r="T26">
-        <v>0.0002630042650120624</v>
+        <v>0.0001719231618844354</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3831746666666667</v>
+        <v>0.2392673333333334</v>
       </c>
       <c r="H27">
-        <v>1.149524</v>
+        <v>0.7178020000000001</v>
       </c>
       <c r="I27">
-        <v>0.0009461198987751364</v>
+        <v>0.0006300268761273452</v>
       </c>
       <c r="J27">
-        <v>0.0009461198987751365</v>
+        <v>0.000630026876127345</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>25.725081</v>
       </c>
       <c r="O27">
-        <v>0.2802543291586047</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="P27">
-        <v>0.2802543291586046</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="Q27">
-        <v>3.285733112382667</v>
+        <v>2.051723843551334</v>
       </c>
       <c r="R27">
-        <v>29.571598011444</v>
+        <v>18.465514591962</v>
       </c>
       <c r="S27">
-        <v>0.0002651541975348328</v>
+        <v>0.0001735665093847926</v>
       </c>
       <c r="T27">
-        <v>0.0002651541975348328</v>
+        <v>0.0001735665093847926</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3831746666666667</v>
+        <v>0.2392673333333334</v>
       </c>
       <c r="H28">
-        <v>1.149524</v>
+        <v>0.7178020000000001</v>
       </c>
       <c r="I28">
-        <v>0.0009461198987751364</v>
+        <v>0.0006300268761273452</v>
       </c>
       <c r="J28">
-        <v>0.0009461198987751365</v>
+        <v>0.000630026876127345</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.846185</v>
+        <v>4.098573333333333</v>
       </c>
       <c r="N28">
-        <v>8.538554999999999</v>
+        <v>12.29572</v>
       </c>
       <c r="O28">
-        <v>0.09302077624202036</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="P28">
-        <v>0.09302077624202033</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="Q28">
-        <v>1.090585988646666</v>
+        <v>0.9806547119377779</v>
       </c>
       <c r="R28">
-        <v>9.815273897819999</v>
+        <v>8.82589240744</v>
       </c>
       <c r="S28">
-        <v>8.800880740208492E-05</v>
+        <v>8.295893026625582E-05</v>
       </c>
       <c r="T28">
-        <v>8.80088074020849E-05</v>
+        <v>8.295893026625581E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3831746666666667</v>
+        <v>0.2392673333333334</v>
       </c>
       <c r="H29">
-        <v>1.149524</v>
+        <v>0.7178020000000001</v>
       </c>
       <c r="I29">
-        <v>0.0009461198987751364</v>
+        <v>0.0006300268761273452</v>
       </c>
       <c r="J29">
-        <v>0.0009461198987751365</v>
+        <v>0.000630026876127345</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.208772</v>
+        <v>2.967941666666667</v>
       </c>
       <c r="N29">
-        <v>12.626316</v>
+        <v>8.903825000000001</v>
       </c>
       <c r="O29">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369267</v>
       </c>
       <c r="P29">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369268</v>
       </c>
       <c r="Q29">
-        <v>1.612694808176</v>
+        <v>0.7101314880722224</v>
       </c>
       <c r="R29">
-        <v>14.514253273584</v>
+        <v>6.391183392650001</v>
       </c>
       <c r="S29">
-        <v>0.0001301422796997693</v>
+        <v>6.007389541059371E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001301422796997693</v>
+        <v>6.007389541059371E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3831746666666667</v>
+        <v>0.2392673333333334</v>
       </c>
       <c r="H30">
-        <v>1.149524</v>
+        <v>0.7178020000000001</v>
       </c>
       <c r="I30">
-        <v>0.0009461198987751364</v>
+        <v>0.0006300268761273452</v>
       </c>
       <c r="J30">
-        <v>0.0009461198987751365</v>
+        <v>0.000630026876127345</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.378539333333334</v>
+        <v>2.510565333333334</v>
       </c>
       <c r="N30">
-        <v>10.135618</v>
+        <v>7.531696</v>
       </c>
       <c r="O30">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="P30">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="Q30">
-        <v>1.294570682870222</v>
+        <v>0.6006962724657779</v>
       </c>
       <c r="R30">
-        <v>11.651136145832</v>
+        <v>5.406266452192001</v>
       </c>
       <c r="S30">
-        <v>0.0001044700950527467</v>
+        <v>5.081617369707816E-05</v>
       </c>
       <c r="T30">
-        <v>0.0001044700950527467</v>
+        <v>5.081617369707815E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3831746666666667</v>
+        <v>0.2392673333333334</v>
       </c>
       <c r="H31">
-        <v>1.149524</v>
+        <v>0.7178020000000001</v>
       </c>
       <c r="I31">
-        <v>0.0009461198987751364</v>
+        <v>0.0006300268761273452</v>
       </c>
       <c r="J31">
-        <v>0.0009461198987751365</v>
+        <v>0.000630026876127345</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.083282333333333</v>
+        <v>4.480437</v>
       </c>
       <c r="N31">
-        <v>9.249846999999999</v>
+        <v>13.441311</v>
       </c>
       <c r="O31">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="P31">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="Q31">
-        <v>1.181435680314222</v>
+        <v>1.072022213158</v>
       </c>
       <c r="R31">
-        <v>10.632921122828</v>
+        <v>9.648199918422002</v>
       </c>
       <c r="S31">
-        <v>9.534025407364044E-05</v>
+        <v>9.068820548418941E-05</v>
       </c>
       <c r="T31">
-        <v>9.534025407364043E-05</v>
+        <v>9.068820548418938E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4989403333333334</v>
+        <v>0.064536</v>
       </c>
       <c r="H32">
-        <v>1.496821</v>
+        <v>0.193608</v>
       </c>
       <c r="I32">
-        <v>0.001231963954649488</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="J32">
-        <v>0.001231963954649489</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.505498666666668</v>
+        <v>8.493837666666666</v>
       </c>
       <c r="N32">
-        <v>25.516496</v>
+        <v>25.481513</v>
       </c>
       <c r="O32">
-        <v>0.2779819612213552</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="P32">
-        <v>0.2779819612213551</v>
+        <v>0.2728822664537969</v>
       </c>
       <c r="Q32">
-        <v>4.24373633991289</v>
+        <v>0.5481583076559999</v>
       </c>
       <c r="R32">
-        <v>38.19362705921601</v>
+        <v>4.933424768904</v>
       </c>
       <c r="S32">
-        <v>0.0003424637562674814</v>
+        <v>4.637170072822558E-05</v>
       </c>
       <c r="T32">
-        <v>0.0003424637562674814</v>
+        <v>4.637170072822558E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4989403333333334</v>
+        <v>0.064536</v>
       </c>
       <c r="H33">
-        <v>1.496821</v>
+        <v>0.193608</v>
       </c>
       <c r="I33">
-        <v>0.001231963954649488</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="J33">
-        <v>0.001231963954649489</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>25.725081</v>
       </c>
       <c r="O33">
-        <v>0.2802543291586047</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="P33">
-        <v>0.2802543291586046</v>
+        <v>0.2754906432748914</v>
       </c>
       <c r="Q33">
-        <v>4.278426829722334</v>
+        <v>0.553397942472</v>
       </c>
       <c r="R33">
-        <v>38.50584146750101</v>
+        <v>4.980581482248</v>
       </c>
       <c r="S33">
-        <v>0.000345263231657874</v>
+        <v>4.681495001263708E-05</v>
       </c>
       <c r="T33">
-        <v>0.000345263231657874</v>
+        <v>4.681495001263709E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4989403333333334</v>
+        <v>0.064536</v>
       </c>
       <c r="H34">
-        <v>1.496821</v>
+        <v>0.193608</v>
       </c>
       <c r="I34">
-        <v>0.001231963954649488</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="J34">
-        <v>0.001231963954649489</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.846185</v>
+        <v>4.098573333333333</v>
       </c>
       <c r="N34">
-        <v>8.538554999999999</v>
+        <v>12.29572</v>
       </c>
       <c r="O34">
-        <v>0.09302077624202036</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="P34">
-        <v>0.09302077624202033</v>
+        <v>0.1316752243589805</v>
       </c>
       <c r="Q34">
-        <v>1.420076492628333</v>
+        <v>0.26450552864</v>
       </c>
       <c r="R34">
-        <v>12.780688433655</v>
+        <v>2.38054975776</v>
       </c>
       <c r="S34">
-        <v>0.0001145982433636846</v>
+        <v>2.237596519790869E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001145982433636846</v>
+        <v>2.237596519790869E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4989403333333334</v>
+        <v>0.064536</v>
       </c>
       <c r="H35">
-        <v>1.496821</v>
+        <v>0.193608</v>
       </c>
       <c r="I35">
-        <v>0.001231963954649488</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="J35">
-        <v>0.001231963954649489</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.208772</v>
+        <v>2.967941666666667</v>
       </c>
       <c r="N35">
-        <v>12.626316</v>
+        <v>8.903825000000001</v>
       </c>
       <c r="O35">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369267</v>
       </c>
       <c r="P35">
-        <v>0.137553686238133</v>
+        <v>0.09535132180369268</v>
       </c>
       <c r="Q35">
-        <v>2.099926104604</v>
+        <v>0.1915390834</v>
       </c>
       <c r="R35">
-        <v>18.899334941436</v>
+        <v>1.7238517506</v>
       </c>
       <c r="S35">
-        <v>0.0001694611832745452</v>
+        <v>1.620333565893411E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001694611832745452</v>
+        <v>1.620333565893412E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4989403333333334</v>
+        <v>0.064536</v>
       </c>
       <c r="H36">
-        <v>1.496821</v>
+        <v>0.193608</v>
       </c>
       <c r="I36">
-        <v>0.001231963954649488</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="J36">
-        <v>0.001231963954649489</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.378539333333334</v>
+        <v>2.510565333333334</v>
       </c>
       <c r="N36">
-        <v>10.135618</v>
+        <v>7.531696</v>
       </c>
       <c r="O36">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="P36">
-        <v>0.1104195093962145</v>
+        <v>0.08065715229393938</v>
       </c>
       <c r="Q36">
-        <v>1.685689541153111</v>
+        <v>0.162021844352</v>
       </c>
       <c r="R36">
-        <v>15.171205870378</v>
+        <v>1.458196599168</v>
       </c>
       <c r="S36">
-        <v>0.0001360328554662167</v>
+        <v>1.370631143009341E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001360328554662167</v>
+        <v>1.370631143009341E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4989403333333334</v>
+        <v>0.064536</v>
       </c>
       <c r="H37">
-        <v>1.496821</v>
+        <v>0.193608</v>
       </c>
       <c r="I37">
-        <v>0.001231963954649488</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="J37">
-        <v>0.001231963954649489</v>
+        <v>0.0001699329946604537</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.083282333333333</v>
+        <v>4.480437</v>
       </c>
       <c r="N37">
-        <v>9.249846999999999</v>
+        <v>13.441311</v>
       </c>
       <c r="O37">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="P37">
-        <v>0.1007697377436725</v>
+        <v>0.1439433918146992</v>
       </c>
       <c r="Q37">
-        <v>1.538373915154111</v>
+        <v>0.289149482232</v>
       </c>
       <c r="R37">
-        <v>13.845365236387</v>
+        <v>2.602345340088</v>
       </c>
       <c r="S37">
-        <v>0.0001241446846196865</v>
+        <v>2.446073163265488E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001241446846196865</v>
+        <v>2.446073163265488E-05</v>
       </c>
     </row>
   </sheetData>
